--- a/result/without_base/12/valence/s01_6.xlsx
+++ b/result/without_base/12/valence/s01_6.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.5125000029802322</v>
+        <v>0.5625</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -510,13 +510,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3949999958276749</v>
+        <v>0.5774999856948853</v>
       </c>
       <c r="C2" t="n">
-        <v>5072.46923828125</v>
+        <v>41727.451171875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4581818174232136</v>
+        <v>0.5627272670919244</v>
       </c>
       <c r="E2" t="n">
-        <v>5072.173251065341</v>
+        <v>41728.95099431818</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4724999815225601</v>
+        <v>0.5424999892711639</v>
       </c>
       <c r="C3" t="n">
-        <v>4970.209716796875</v>
+        <v>40966.12109375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5088636360385201</v>
+        <v>0.5814772735942494</v>
       </c>
       <c r="E3" t="n">
-        <v>4970.044256036932</v>
+        <v>40965.63565340909</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4624999910593033</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C4" t="n">
-        <v>4869.9150390625</v>
+        <v>40209.244140625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.509318167513067</v>
+        <v>0.6302272731607611</v>
       </c>
       <c r="E4" t="n">
-        <v>4869.773837002841</v>
+        <v>40207.56569602273</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,1308 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5125000029802322</v>
+        <v>0.6175000071525574</v>
       </c>
       <c r="C5" t="n">
-        <v>4771.718017578125</v>
+        <v>39464</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5206818147139116</v>
+        <v>0.646250004118139</v>
       </c>
       <c r="E5" t="n">
-        <v>4771.565074573864</v>
+        <v>39461.48544034091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5849999785423279</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38727.71484375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6644318103790283</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38724.11150568182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5824999809265137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38002.880859375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.67306818745353</v>
+      </c>
+      <c r="E7" t="n">
+        <v>37998.29758522727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5949999988079071</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37286.4453125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7035227255387739</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37283.26278409091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6100000143051147</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36583.84375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7185227329080756</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36580.31321022727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6149999797344208</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35893.9296875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7277272722937844</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35889.1171875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6274999976158142</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35213.609375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7405681772665544</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35208.93288352273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.632500022649765</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34544.87890625</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7602272738109935</v>
+      </c>
+      <c r="E12" t="n">
+        <v>34540.27521306818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6175000071525574</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33888.107421875</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7553409175439314</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33883.52379261364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5974999964237213</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33242.115234375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.783295447176153</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33237.39169034091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5900000035762787</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32607.6953125</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7848863547498529</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32602.83114346591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31983.4345703125</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8071590987118807</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31979.28533380682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6149999797344208</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31371.171875</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8118181824684143</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31366.86115056818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6100000143051147</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30769.291015625</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.810454552823847</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30765.23473011364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5949999988079071</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30178.3017578125</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8287500088865106</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30173.80202414773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5225000083446503</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29599.2060546875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7752272703430869</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29593.93181818182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="C21" t="n">
+        <v>29028.2568359375</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8296590935100209</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29023.18128551136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5525000095367432</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28468.2919921875</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8272727240215648</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28463.27024147727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="C23" t="n">
+        <v>27917.63671875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8726136305115439</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27913.10795454546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5875000059604645</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27377.2197265625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8626136346296831</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27373.28196022727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26847.6796875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8386363712224093</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26843.36203835227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26326.9267578125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8515909151597456</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26322.61505681818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5424999892711639</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25815.21875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8884090889583934</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25811.11541193182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5974999964237213</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25313.0166015625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8869318149306558</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25309.08416193182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5850000083446503</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24820.2626953125</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8971590887416493</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24816.06658380682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6274999976158142</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24336.01953125</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8744318214329806</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24332.19264914773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5999999940395355</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23861.1865234375</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8832954655994069</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23856.88991477273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5774999856948853</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23394.6201171875</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8473863655870612</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23390.49076704546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6074999868869781</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22935.9580078125</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9027272625402971</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22932.09286221591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.574999988079071</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22486.5234375</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8914772759784352</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22482.51118607954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5300000011920929</v>
+      </c>
+      <c r="C35" t="n">
+        <v>22044.783203125</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8924999941479076</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22040.96182528409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5849999785423279</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21611.119140625</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8821590867909518</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21607.49307528409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5949999988079071</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21185.1005859375</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9225000034679066</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21181.82830255682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5874999761581421</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20767.3310546875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9069318121129816</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20764.17702414773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6324999928474426</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20356.8095703125</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9244318170980974</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20354.05983664773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5999999940395355</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19954.69921875</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9061363610354337</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19951.65500710227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19559.3095703125</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9093181761828336</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19556.65056818182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5949999988079071</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19171.6982421875</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9293181787837635</v>
+      </c>
+      <c r="E42" t="n">
+        <v>19168.78728693182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5925000011920929</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18791.2763671875</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9270454536784779</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18788.15127840909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5925000011920929</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18417.4375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9273863597349687</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18414.53586647727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6074999868869781</v>
+      </c>
+      <c r="C45" t="n">
+        <v>18050.67578125</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9373863610354337</v>
+      </c>
+      <c r="E45" t="n">
+        <v>18047.80539772727</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6024999916553497</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17690.552734375</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9415909106081183</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17687.86150568182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6124999821186066</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17337.2822265625</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9345454573631287</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17334.61825284091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.574999988079071</v>
+      </c>
+      <c r="C48" t="n">
+        <v>16990.416015625</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9390909075737</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16987.90500710227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5925000011920929</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16650.46484375</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9264772696928545</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16647.69708806818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5874999761581421</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16316.6533203125</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9213636354966597</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16313.80024857955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5899999737739563</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15988.578125</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9311363697052002</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15986.048828125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15667.29638671875</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9307954528115012</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15664.43616832386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5900000035762787</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15351.640625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9335227283564481</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15348.837890625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5774999856948853</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15042.037109375</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9015909162434664</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15039.26793323864</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5875000059604645</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14737.904296875</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9332954504273154</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14735.28924005682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5900000035762787</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14439.33544921875</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9428409012881193</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14437.08602627841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5825000107288361</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14146.97119140625</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9396590915593234</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14144.458984375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5900000035762787</v>
+      </c>
+      <c r="C58" t="n">
+        <v>13859.76171875</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9434090852737427</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13857.33469460227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5850000083446503</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13577.94384765625</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9356818199157715</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13575.58726917614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6050000190734863</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13301.3603515625</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9322727376764471</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13299.16060014205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.632500022649765</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13029.8623046875</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9390909021550958</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13027.87242542614</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.6149999797344208</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12763.5576171875</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9363636482845653</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12761.74937855114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5850000083446503</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12502.79345703125</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.929090911691839</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12500.65971235795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12246.5244140625</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9254545406861738</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12244.45951704545</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5724999904632568</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11995.0341796875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9271590980616483</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11993.11869673295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11748.27392578125</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9279545437205922</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11746.55158025568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5725000202655792</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11506.72119140625</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9435227296569131</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11504.59428267045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5724999904632568</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11269.337890625</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9109090891751376</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11267.34534801136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5874999761581421</v>
+      </c>
+      <c r="C69" t="n">
+        <v>11036.44970703125</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9199999950148843</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11034.49369673295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5774999856948853</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10808.22802734375</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8820454640821977</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10806.20765269886</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5949999988079071</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10583.841796875</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9313636476343329</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10582.02965198864</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6475000083446503</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10364.08642578125</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9459090828895569</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10362.24236505682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.6299999952316284</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10148.3701171875</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9235227270559832</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10146.75692471591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5974999964237213</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9937.02783203125</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9252272681756453</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9935.298029119318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6024999916553497</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9729.537109375</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8896590904756025</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9728.024591619318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5949999988079071</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9526.119140625</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9401136311617765</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9524.479048295454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5925000011920929</v>
+      </c>
+      <c r="C77" t="n">
+        <v>9326.54052734375</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9304545467550104</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9325.003373579546</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9130.78759765625</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9314772703430869</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9129.305841619318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5949999988079071</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8939.15771484375</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.923068182034926</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8937.428355823864</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.612500011920929</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8750.85205078125</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9112500006502325</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8749.22265625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8566.24267578125</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9251136400482871</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8564.605823863636</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -681,21 +1973,21 @@
         <v>0.008333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.008333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5803472222222221</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.01666666666666667</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -703,29 +1995,29 @@
         <v>0.01666666666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C7" t="n">
         <v>0.03333333333333333</v>
@@ -733,10 +2025,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C8" t="n">
         <v>0.03333333333333333</v>
@@ -744,10 +2036,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C9" t="n">
         <v>0.05</v>
@@ -755,10 +2047,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C10" t="n">
         <v>0.05</v>
@@ -766,1000 +2058,1000 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09166666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1</v>
+        <v>0.1083333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1</v>
+        <v>0.1083333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2166666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2166666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C21" t="n">
-        <v>0.15</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C22" t="n">
-        <v>0.15</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1916666666666667</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1916666666666667</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.225</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.225</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.3416666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.3416666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C33" t="n">
-        <v>0.225</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C34" t="n">
-        <v>0.225</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.3583333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.325</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.3583333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.325</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25</v>
+        <v>0.4083333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3416666666666667</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C38" t="n">
-        <v>0.25</v>
+        <v>0.4083333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3416666666666667</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C41" t="n">
-        <v>0.275</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C42" t="n">
-        <v>0.275</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.325</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.325</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C51" t="n">
-        <v>0.35</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.5</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C52" t="n">
-        <v>0.35</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.5</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C57" t="n">
-        <v>0.475</v>
+        <v>0.5583333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C58" t="n">
-        <v>0.475</v>
+        <v>0.5583333333333333</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.55</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.55</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.525</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.525</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C65" t="n">
-        <v>0.55</v>
+        <v>0.6583333333333333</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.575</v>
+        <v>0.55</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C66" t="n">
-        <v>0.55</v>
+        <v>0.6583333333333333</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.575</v>
+        <v>0.55</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C67" t="n">
-        <v>0.575</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C68" t="n">
-        <v>0.575</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6833333333333333</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.625</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6833333333333333</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.625</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6</v>
+        <v>0.6916666666666667</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6</v>
+        <v>0.6916666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.675</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.675</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C79" t="n">
-        <v>0.65</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.725</v>
+        <v>0.7</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C80" t="n">
-        <v>0.65</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.725</v>
+        <v>0.7</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C81" t="n">
-        <v>0.675</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C82" t="n">
-        <v>0.675</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7</v>
+        <v>0.8083333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7</v>
+        <v>0.8083333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.825</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.825</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C93" t="n">
-        <v>0.775</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.85</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C94" t="n">
-        <v>0.775</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.85</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.875</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5803472222222221</v>
+      </c>
+      <c r="C97" t="n">
         <v>0.875</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.8416666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5803472222222221</v>
+      </c>
+      <c r="C100" t="n">
         <v>0.9</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.9</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C101" t="n">
         <v>0.9083333333333333</v>
@@ -1767,10 +3059,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.95</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C102" t="n">
         <v>0.9083333333333333</v>
@@ -1778,111 +3070,100 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.95</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C105" t="n">
-        <v>0.925</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.925</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C106" t="n">
-        <v>0.925</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.925</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C107" t="n">
-        <v>0.95</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.975</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C108" t="n">
-        <v>0.95</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.975</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9916666666666667</v>
+        <v>0.9833333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9916666666666667</v>
+        <v>0.9833333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5803472222222221</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1921,109 +3202,109 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5802777777777777</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.025</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.05</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.05</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.075</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.075</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C8" t="n">
-        <v>0.075</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.075</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2031,10 +3312,10 @@
         <v>0.09166666666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2042,1000 +3323,1000 @@
         <v>0.09166666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1</v>
+        <v>0.05833333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1</v>
+        <v>0.05833333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C17" t="n">
-        <v>0.125</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.225</v>
+        <v>0.15</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.225</v>
+        <v>0.15</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C21" t="n">
-        <v>0.175</v>
+        <v>0.1583333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C22" t="n">
-        <v>0.175</v>
+        <v>0.1583333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1916666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1916666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.3</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.3</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C29" t="n">
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C30" t="n">
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C31" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.325</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C32" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.325</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C33" t="n">
-        <v>0.275</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.35</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C34" t="n">
-        <v>0.275</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.35</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3833333333333334</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.4</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3833333333333334</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.4</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C41" t="n">
-        <v>0.375</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C42" t="n">
-        <v>0.375</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.325</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.325</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.4416666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.425</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.4416666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.425</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C47" t="n">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
+        <v>0.3416666666666667</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5802777777777777</v>
+      </c>
+      <c r="C48" t="n">
         <v>0.45</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.425</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.45</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C53" t="n">
-        <v>0.45</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C54" t="n">
-        <v>0.45</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.525</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.525</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.45</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.45</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.65</v>
+        <v>0.475</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5802777777777777</v>
+      </c>
+      <c r="C63" t="n">
         <v>0.65</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.55</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C64" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6583333333333333</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6583333333333333</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.725</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.725</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.75</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.75</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C77" t="n">
-        <v>0.675</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C78" t="n">
-        <v>0.675</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.775</v>
+        <v>0.65</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.775</v>
+        <v>0.65</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.8</v>
+        <v>0.675</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5802777777777777</v>
+      </c>
+      <c r="C85" t="n">
         <v>0.8</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.825</v>
+        <v>0.7</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.825</v>
+        <v>0.7</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5802777777777777</v>
+      </c>
+      <c r="C91" t="n">
         <v>0.8416666666666667</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.85</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8416666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.85</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8583333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.5802777777777777</v>
+      </c>
+      <c r="C94" t="n">
         <v>0.8583333333333333</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9</v>
+        <v>0.9083333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9</v>
+        <v>0.9083333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.9</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.9</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5802777777777777</v>
+      </c>
+      <c r="C102" t="n">
         <v>0.9333333333333333</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9416666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3043,10 +4324,10 @@
         <v>0.95</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9416666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3054,10 +4335,10 @@
         <v>0.95</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3065,10 +4346,10 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3076,32 +4357,32 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C107" t="n">
-        <v>0.95</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9916666666666667</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C108" t="n">
-        <v>0.95</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5802777777777777</v>
+      </c>
+      <c r="C109" t="n">
         <v>0.9916666666666667</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.4549305555555555</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.9833333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3109,10 +4390,10 @@
         <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.9916666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3120,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4549305555555555</v>
+        <v>0.5802777777777777</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
